--- a/data/donnees_AGRIMOTORS_2023-07-24.xlsx
+++ b/data/donnees_AGRIMOTORS_2023-07-24.xlsx
@@ -446,7 +446,7 @@
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="51" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-22164922</v>
+        <v>-23068622</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>6249201.2</v>
+        <v>15613480.4</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>7203931.2</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>-8711789.6</v>
+        <v>-251210.4</v>
       </c>
     </row>
     <row r="70">
@@ -3047,7 +3047,7 @@
         <v>313206115.07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-13547299.95</v>
+        <v>-17997599.95</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>-54127572.29</v>
@@ -3059,7 +3059,7 @@
         <v>-1342411428.74</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-1120422127.24</v>
+        <v>-1124872427.24</v>
       </c>
     </row>
     <row r="3">
@@ -3187,7 +3187,7 @@
         <v>9640976.060000001</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-4479151.46</v>
+        <v>-4834351.46</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>-2396790.77</v>
@@ -3199,7 +3199,7 @@
         <v>-12151720.28</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-9662566.449999999</v>
+        <v>-10017766.45</v>
       </c>
     </row>
     <row r="7">
@@ -4097,10 +4097,10 @@
         <v>15401300</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-14253300</v>
+        <v>-4590200</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-3786600</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>-8737500</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-11376100</v>
+        <v>2073600</v>
       </c>
     </row>
     <row r="33">

--- a/data/donnees_AGRIMOTORS_2023-07-24.xlsx
+++ b/data/donnees_AGRIMOTORS_2023-07-24.xlsx
@@ -3187,7 +3187,7 @@
         <v>9640976.060000001</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-4834351.46</v>
+        <v>-4911151.46</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>-2396790.77</v>
@@ -3199,7 +3199,7 @@
         <v>-12151720.28</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-10017766.45</v>
+        <v>-10094566.45</v>
       </c>
     </row>
     <row r="7">
